--- a/reports/ags-1.xlsx
+++ b/reports/ags-1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
   <si>
     <t>ФЕДЕРАЛЬНОЕ СТАТИСТИЧЕСКОЕ НАБЛЮДЕНИЕ</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>Численность граждан, прибывших в организацию для прохождения альтернативной гражданской службы и заключивших срочный трудовой договор в течение отчетного периода</t>
+  </si>
+  <si>
+    <t>0606039</t>
+  </si>
+  <si>
+    <t>00083351</t>
   </si>
 </sst>
 </file>
@@ -870,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -893,6 +899,342 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,30 +1256,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -956,9 +1277,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -980,316 +1298,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1606,268 +1615,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="58"/>
     </row>
     <row r="2" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
     </row>
     <row r="3" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
     </row>
     <row r="5" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="61"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="67"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="64"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="70"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="64"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="70"/>
     </row>
     <row r="9" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="67"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="73"/>
     </row>
     <row r="10" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
     </row>
     <row r="12" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="61"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="67"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="67"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73"/>
     </row>
     <row r="16" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="68" t="s">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="M18" s="74" t="s">
+      <c r="J18" s="75"/>
+      <c r="K18" s="76"/>
+      <c r="M18" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="75"/>
-      <c r="O18" s="76"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="82"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="79"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="79"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="85"/>
     </row>
     <row r="20" spans="2:16" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="39" t="s">
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="M20" s="31" t="s">
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="M20" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
     </row>
     <row r="21" spans="2:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
     </row>
     <row r="22" spans="2:16" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:16" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="M23" s="80" t="s">
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="M23" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="N23" s="81"/>
-      <c r="O23" s="82"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="88"/>
     </row>
     <row r="24" spans="2:16" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -1875,503 +1884,503 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="85"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="88"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="94"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="85"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="91"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="91" t="s">
+      <c r="C29" s="98"/>
+      <c r="D29" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="105"/>
     </row>
     <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="94" t="s">
+      <c r="B30" s="99"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94" t="s">
+      <c r="E30" s="106"/>
+      <c r="F30" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="97" t="s">
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="97"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="98"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="98"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="110"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
     </row>
     <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="42">
+      <c r="B34" s="120">
         <v>1</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42">
+      <c r="C34" s="120"/>
+      <c r="D34" s="120">
         <v>2</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42">
+      <c r="E34" s="120"/>
+      <c r="F34" s="120">
         <v>3</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42">
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120">
         <v>4</v>
       </c>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="120"/>
     </row>
     <row r="35" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="43">
-        <v>606039</v>
-      </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43">
-        <v>83351</v>
-      </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43">
+      <c r="B35" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="121"/>
+      <c r="D35" s="143" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121">
         <v>13226</v>
       </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43">
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="121">
         <v>1</v>
       </c>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="121"/>
+      <c r="P35" s="121"/>
     </row>
     <row r="39" spans="2:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="55"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R40" s="44" t="s">
+      <c r="R40" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
     </row>
     <row r="41" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="11" t="s">
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="19" t="s">
+      <c r="F41" s="129"/>
+      <c r="G41" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="19" t="s">
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="19" t="s">
+      <c r="N41" s="98"/>
+      <c r="O41" s="98"/>
+      <c r="P41" s="98"/>
+      <c r="Q41" s="98"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="T41" s="20"/>
+      <c r="T41" s="129"/>
     </row>
     <row r="42" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="22"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="136"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="101"/>
+      <c r="N42" s="136"/>
+      <c r="O42" s="136"/>
+      <c r="P42" s="136"/>
+      <c r="Q42" s="136"/>
+      <c r="R42" s="102"/>
+      <c r="S42" s="99"/>
+      <c r="T42" s="100"/>
     </row>
     <row r="43" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="25" t="s">
+      <c r="B43" s="127"/>
+      <c r="C43" s="127"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="26"/>
-      <c r="I43" s="33" t="s">
+      <c r="H43" s="131"/>
+      <c r="I43" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="19" t="s">
+      <c r="J43" s="138"/>
+      <c r="K43" s="138"/>
+      <c r="L43" s="139"/>
+      <c r="M43" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="N43" s="20"/>
-      <c r="O43" s="36" t="s">
+      <c r="N43" s="129"/>
+      <c r="O43" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="22"/>
+      <c r="P43" s="141"/>
+      <c r="Q43" s="141"/>
+      <c r="R43" s="142"/>
+      <c r="S43" s="99"/>
+      <c r="T43" s="100"/>
     </row>
     <row r="44" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="19" t="s">
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="20"/>
-      <c r="K44" s="19" t="s">
+      <c r="J44" s="129"/>
+      <c r="K44" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="20"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="11" t="s">
+      <c r="L44" s="129"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="P44" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="Q44" s="11" t="s">
+      <c r="Q44" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="R44" s="11" t="s">
+      <c r="R44" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="S44" s="21"/>
-      <c r="T44" s="22"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="100"/>
     </row>
     <row r="45" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="22"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="100"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="100"/>
+      <c r="O45" s="124"/>
+      <c r="P45" s="124"/>
+      <c r="Q45" s="124"/>
+      <c r="R45" s="124"/>
+      <c r="S45" s="99"/>
+      <c r="T45" s="100"/>
     </row>
     <row r="46" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="22"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="99"/>
+      <c r="N46" s="100"/>
+      <c r="O46" s="124"/>
+      <c r="P46" s="124"/>
+      <c r="Q46" s="124"/>
+      <c r="R46" s="124"/>
+      <c r="S46" s="99"/>
+      <c r="T46" s="100"/>
     </row>
     <row r="47" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="22"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="100"/>
+      <c r="O47" s="124"/>
+      <c r="P47" s="124"/>
+      <c r="Q47" s="124"/>
+      <c r="R47" s="124"/>
+      <c r="S47" s="99"/>
+      <c r="T47" s="100"/>
     </row>
     <row r="48" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="22"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="100"/>
+      <c r="O48" s="124"/>
+      <c r="P48" s="124"/>
+      <c r="Q48" s="124"/>
+      <c r="R48" s="124"/>
+      <c r="S48" s="99"/>
+      <c r="T48" s="100"/>
     </row>
     <row r="49" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="22"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="100"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="100"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="100"/>
+      <c r="O49" s="124"/>
+      <c r="P49" s="124"/>
+      <c r="Q49" s="124"/>
+      <c r="R49" s="124"/>
+      <c r="S49" s="99"/>
+      <c r="T49" s="100"/>
     </row>
     <row r="50" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="24"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="135"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="101"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="101"/>
+      <c r="N50" s="102"/>
+      <c r="O50" s="125"/>
+      <c r="P50" s="125"/>
+      <c r="Q50" s="125"/>
+      <c r="R50" s="125"/>
+      <c r="S50" s="101"/>
+      <c r="T50" s="102"/>
     </row>
     <row r="51" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="10">
+      <c r="B51" s="122">
         <v>1</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="122"/>
       <c r="D51" s="4">
         <v>2</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="122">
         <v>3</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10">
+      <c r="F51" s="122"/>
+      <c r="G51" s="122">
         <v>4</v>
       </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10">
+      <c r="H51" s="122"/>
+      <c r="I51" s="122">
         <v>5</v>
       </c>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10">
+      <c r="J51" s="122"/>
+      <c r="K51" s="122">
         <v>6</v>
       </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10">
+      <c r="L51" s="122"/>
+      <c r="M51" s="122">
         <v>7</v>
       </c>
-      <c r="N51" s="10"/>
+      <c r="N51" s="122"/>
       <c r="O51" s="4">
         <v>8</v>
       </c>
@@ -2384,39 +2393,39 @@
       <c r="R51" s="4">
         <v>11</v>
       </c>
-      <c r="S51" s="10">
+      <c r="S51" s="122">
         <v>12</v>
       </c>
-      <c r="T51" s="10"/>
+      <c r="T51" s="122"/>
     </row>
     <row r="52" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="47"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="48" t="s">
+      <c r="F52" s="21"/>
+      <c r="G52" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H52" s="49"/>
-      <c r="I52" s="48" t="s">
+      <c r="H52" s="21"/>
+      <c r="I52" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J52" s="49"/>
-      <c r="K52" s="48" t="s">
+      <c r="J52" s="21"/>
+      <c r="K52" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L52" s="49"/>
-      <c r="M52" s="48" t="s">
+      <c r="L52" s="21"/>
+      <c r="M52" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="N52" s="49"/>
+      <c r="N52" s="21"/>
       <c r="O52" s="5" t="s">
         <v>68</v>
       </c>
@@ -2429,37 +2438,37 @@
       <c r="R52" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="S52" s="48" t="s">
+      <c r="S52" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="T52" s="49"/>
+      <c r="T52" s="21"/>
     </row>
     <row r="53" spans="2:20" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="47"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="48" t="s">
+      <c r="F53" s="21"/>
+      <c r="G53" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="49"/>
-      <c r="I53" s="48" t="s">
+      <c r="H53" s="21"/>
+      <c r="I53" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J53" s="49"/>
-      <c r="K53" s="48" t="s">
+      <c r="J53" s="21"/>
+      <c r="K53" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L53" s="49"/>
-      <c r="M53" s="48" t="s">
+      <c r="L53" s="21"/>
+      <c r="M53" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="N53" s="49"/>
+      <c r="N53" s="21"/>
       <c r="O53" s="5" t="s">
         <v>68</v>
       </c>
@@ -2472,37 +2481,37 @@
       <c r="R53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="S53" s="48" t="s">
+      <c r="S53" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="T53" s="49"/>
+      <c r="T53" s="21"/>
     </row>
     <row r="54" spans="2:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="103" t="s">
+      <c r="B54" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="104"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="48" t="s">
+      <c r="F54" s="21"/>
+      <c r="G54" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H54" s="49"/>
-      <c r="I54" s="48" t="s">
+      <c r="H54" s="21"/>
+      <c r="I54" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J54" s="49"/>
-      <c r="K54" s="48" t="s">
+      <c r="J54" s="21"/>
+      <c r="K54" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L54" s="49"/>
-      <c r="M54" s="48" t="s">
+      <c r="L54" s="21"/>
+      <c r="M54" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="N54" s="49"/>
+      <c r="N54" s="21"/>
       <c r="O54" s="5" t="s">
         <v>68</v>
       </c>
@@ -2515,463 +2524,463 @@
       <c r="R54" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="S54" s="48" t="s">
+      <c r="S54" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="T54" s="49"/>
+      <c r="T54" s="21"/>
     </row>
     <row r="58" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="128" t="s">
+      <c r="B58" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="128"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="128"/>
-      <c r="F58" s="128"/>
-      <c r="G58" s="128"/>
-      <c r="H58" s="128"/>
-      <c r="I58" s="128"/>
-      <c r="J58" s="128"/>
-      <c r="K58" s="128"/>
-      <c r="L58" s="128"/>
-      <c r="M58" s="128"/>
-      <c r="N58" s="128"/>
-      <c r="O58" s="128"/>
-      <c r="P58" s="128"/>
-      <c r="Q58" s="128"/>
-      <c r="R58" s="128"/>
-      <c r="S58" s="128"/>
-      <c r="T58" s="128"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R59" s="129" t="s">
+      <c r="R59" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="S59" s="129"/>
-      <c r="T59" s="129"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="26"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="120"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="117" t="s">
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G60" s="111" t="s">
+      <c r="G60" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="H60" s="112"/>
-      <c r="I60" s="105" t="s">
+      <c r="H60" s="43"/>
+      <c r="I60" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="J60" s="106"/>
-      <c r="K60" s="106"/>
-      <c r="L60" s="106"/>
-      <c r="M60" s="106"/>
-      <c r="N60" s="106"/>
-      <c r="O60" s="106"/>
-      <c r="P60" s="106"/>
-      <c r="Q60" s="106"/>
-      <c r="R60" s="106"/>
-      <c r="S60" s="106"/>
-      <c r="T60" s="107"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="38"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="121"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="121"/>
-      <c r="F61" s="118"/>
-      <c r="G61" s="113"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="108"/>
-      <c r="J61" s="109"/>
-      <c r="K61" s="109"/>
-      <c r="L61" s="109"/>
-      <c r="M61" s="109"/>
-      <c r="N61" s="109"/>
-      <c r="O61" s="109"/>
-      <c r="P61" s="109"/>
-      <c r="Q61" s="109"/>
-      <c r="R61" s="109"/>
-      <c r="S61" s="109"/>
-      <c r="T61" s="110"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="41"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
-      <c r="E62" s="121"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="113"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="117" t="s">
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J62" s="117"/>
-      <c r="K62" s="117" t="s">
+      <c r="J62" s="48"/>
+      <c r="K62" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="L62" s="117"/>
-      <c r="M62" s="117" t="s">
+      <c r="L62" s="48"/>
+      <c r="M62" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="117"/>
-      <c r="O62" s="117" t="s">
+      <c r="N62" s="48"/>
+      <c r="O62" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="P62" s="117"/>
-      <c r="Q62" s="117" t="s">
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="R62" s="117"/>
-      <c r="S62" s="117" t="s">
+      <c r="R62" s="48"/>
+      <c r="S62" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="T62" s="117"/>
+      <c r="T62" s="48"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B63" s="121"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
-      <c r="E63" s="121"/>
-      <c r="F63" s="118"/>
-      <c r="G63" s="113"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="118"/>
-      <c r="J63" s="118"/>
-      <c r="K63" s="118"/>
-      <c r="L63" s="118"/>
-      <c r="M63" s="118"/>
-      <c r="N63" s="118"/>
-      <c r="O63" s="118"/>
-      <c r="P63" s="118"/>
-      <c r="Q63" s="118"/>
-      <c r="R63" s="118"/>
-      <c r="S63" s="118"/>
-      <c r="T63" s="118"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="49"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B64" s="122"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="122"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="119"/>
-      <c r="G64" s="115"/>
-      <c r="H64" s="116"/>
-      <c r="I64" s="119"/>
-      <c r="J64" s="119"/>
-      <c r="K64" s="119"/>
-      <c r="L64" s="119"/>
-      <c r="M64" s="119"/>
-      <c r="N64" s="119"/>
-      <c r="O64" s="119"/>
-      <c r="P64" s="119"/>
-      <c r="Q64" s="119"/>
-      <c r="R64" s="119"/>
-      <c r="S64" s="119"/>
-      <c r="T64" s="119"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="50"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B65" s="126">
+      <c r="B65" s="19">
         <v>1</v>
       </c>
-      <c r="C65" s="126"/>
-      <c r="D65" s="126"/>
-      <c r="E65" s="126"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
       <c r="F65" s="7">
         <v>2</v>
       </c>
-      <c r="G65" s="126">
+      <c r="G65" s="19">
         <v>3</v>
       </c>
-      <c r="H65" s="126"/>
-      <c r="I65" s="126">
+      <c r="H65" s="19"/>
+      <c r="I65" s="19">
         <v>4</v>
       </c>
-      <c r="J65" s="126"/>
-      <c r="K65" s="126">
+      <c r="J65" s="19"/>
+      <c r="K65" s="19">
         <v>5</v>
       </c>
-      <c r="L65" s="126"/>
-      <c r="M65" s="126">
+      <c r="L65" s="19"/>
+      <c r="M65" s="19">
         <v>6</v>
       </c>
-      <c r="N65" s="126"/>
-      <c r="O65" s="126">
+      <c r="N65" s="19"/>
+      <c r="O65" s="19">
         <v>7</v>
       </c>
-      <c r="P65" s="126"/>
-      <c r="Q65" s="126">
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19">
         <v>8</v>
       </c>
-      <c r="R65" s="126"/>
-      <c r="S65" s="126">
+      <c r="R65" s="19"/>
+      <c r="S65" s="19">
         <v>9</v>
       </c>
-      <c r="T65" s="126"/>
+      <c r="T65" s="19"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B66" s="123" t="s">
+      <c r="B66" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="124"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="127" t="s">
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G66" s="126" t="s">
+      <c r="G66" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="H66" s="126"/>
-      <c r="I66" s="126" t="s">
+      <c r="H66" s="19"/>
+      <c r="I66" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="J66" s="126"/>
-      <c r="K66" s="126" t="s">
+      <c r="J66" s="19"/>
+      <c r="K66" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L66" s="126"/>
-      <c r="M66" s="126" t="s">
+      <c r="L66" s="19"/>
+      <c r="M66" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="N66" s="126"/>
-      <c r="O66" s="126" t="s">
+      <c r="N66" s="19"/>
+      <c r="O66" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="P66" s="126"/>
-      <c r="Q66" s="126" t="s">
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="R66" s="126"/>
-      <c r="S66" s="126" t="s">
+      <c r="R66" s="19"/>
+      <c r="S66" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="T66" s="126"/>
+      <c r="T66" s="19"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="123"/>
-      <c r="C67" s="124"/>
-      <c r="D67" s="124"/>
-      <c r="E67" s="125"/>
-      <c r="F67" s="127"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="126"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="126"/>
-      <c r="K67" s="126"/>
-      <c r="L67" s="126"/>
-      <c r="M67" s="126"/>
-      <c r="N67" s="126"/>
-      <c r="O67" s="126"/>
-      <c r="P67" s="126"/>
-      <c r="Q67" s="126"/>
-      <c r="R67" s="126"/>
-      <c r="S67" s="126"/>
-      <c r="T67" s="126"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B68" s="123"/>
-      <c r="C68" s="124"/>
-      <c r="D68" s="124"/>
-      <c r="E68" s="125"/>
-      <c r="F68" s="127"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="126"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="126"/>
-      <c r="K68" s="126"/>
-      <c r="L68" s="126"/>
-      <c r="M68" s="126"/>
-      <c r="N68" s="126"/>
-      <c r="O68" s="126"/>
-      <c r="P68" s="126"/>
-      <c r="Q68" s="126"/>
-      <c r="R68" s="126"/>
-      <c r="S68" s="126"/>
-      <c r="T68" s="126"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
     </row>
     <row r="69" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="123" t="s">
+      <c r="B69" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="124"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="125"/>
-      <c r="F69" s="127" t="s">
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="130" t="s">
+      <c r="G69" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H69" s="131"/>
-      <c r="I69" s="126" t="s">
+      <c r="H69" s="29"/>
+      <c r="I69" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="J69" s="126"/>
-      <c r="K69" s="126" t="s">
+      <c r="J69" s="19"/>
+      <c r="K69" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="126"/>
-      <c r="M69" s="126" t="s">
+      <c r="L69" s="19"/>
+      <c r="M69" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="N69" s="126"/>
-      <c r="O69" s="126" t="s">
+      <c r="N69" s="19"/>
+      <c r="O69" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="P69" s="126"/>
-      <c r="Q69" s="126" t="s">
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R69" s="126"/>
-      <c r="S69" s="126" t="s">
+      <c r="R69" s="19"/>
+      <c r="S69" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="T69" s="126"/>
+      <c r="T69" s="19"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B70" s="123"/>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="125"/>
-      <c r="F70" s="127"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="133"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="126"/>
-      <c r="M70" s="126"/>
-      <c r="N70" s="126"/>
-      <c r="O70" s="126"/>
-      <c r="P70" s="126"/>
-      <c r="Q70" s="126"/>
-      <c r="R70" s="126"/>
-      <c r="S70" s="126"/>
-      <c r="T70" s="126"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B71" s="123" t="s">
+      <c r="B71" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="124"/>
-      <c r="D71" s="124"/>
-      <c r="E71" s="125"/>
-      <c r="F71" s="127" t="s">
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G71" s="130" t="s">
+      <c r="G71" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="H71" s="131"/>
-      <c r="I71" s="126" t="s">
+      <c r="H71" s="29"/>
+      <c r="I71" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="J71" s="126"/>
-      <c r="K71" s="126" t="s">
+      <c r="J71" s="19"/>
+      <c r="K71" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="L71" s="126"/>
-      <c r="M71" s="126" t="s">
+      <c r="L71" s="19"/>
+      <c r="M71" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="N71" s="126"/>
-      <c r="O71" s="126" t="s">
+      <c r="N71" s="19"/>
+      <c r="O71" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="P71" s="126"/>
-      <c r="Q71" s="126" t="s">
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="R71" s="126"/>
-      <c r="S71" s="126" t="s">
+      <c r="R71" s="19"/>
+      <c r="S71" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="T71" s="126"/>
+      <c r="T71" s="19"/>
     </row>
     <row r="72" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="123"/>
-      <c r="C72" s="124"/>
-      <c r="D72" s="124"/>
-      <c r="E72" s="125"/>
-      <c r="F72" s="127"/>
-      <c r="G72" s="132"/>
-      <c r="H72" s="133"/>
-      <c r="I72" s="126"/>
-      <c r="J72" s="126"/>
-      <c r="K72" s="126"/>
-      <c r="L72" s="126"/>
-      <c r="M72" s="126"/>
-      <c r="N72" s="126"/>
-      <c r="O72" s="126"/>
-      <c r="P72" s="126"/>
-      <c r="Q72" s="126"/>
-      <c r="R72" s="126"/>
-      <c r="S72" s="126"/>
-      <c r="T72" s="126"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B73" s="123" t="s">
+      <c r="B73" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="124"/>
-      <c r="D73" s="124"/>
-      <c r="E73" s="125"/>
-      <c r="F73" s="127" t="s">
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G73" s="130" t="s">
+      <c r="G73" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H73" s="131"/>
-      <c r="I73" s="126" t="s">
+      <c r="H73" s="29"/>
+      <c r="I73" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="J73" s="126"/>
-      <c r="K73" s="126" t="s">
+      <c r="J73" s="19"/>
+      <c r="K73" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="L73" s="126"/>
-      <c r="M73" s="126" t="s">
+      <c r="L73" s="19"/>
+      <c r="M73" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="N73" s="126"/>
-      <c r="O73" s="126" t="s">
+      <c r="N73" s="19"/>
+      <c r="O73" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="P73" s="126"/>
-      <c r="Q73" s="126" t="s">
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="R73" s="126"/>
-      <c r="S73" s="126" t="s">
+      <c r="R73" s="19"/>
+      <c r="S73" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="T73" s="126"/>
+      <c r="T73" s="19"/>
     </row>
     <row r="74" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="123"/>
-      <c r="C74" s="124"/>
-      <c r="D74" s="124"/>
-      <c r="E74" s="125"/>
-      <c r="F74" s="127"/>
-      <c r="G74" s="132"/>
-      <c r="H74" s="133"/>
-      <c r="I74" s="126"/>
-      <c r="J74" s="126"/>
-      <c r="K74" s="126"/>
-      <c r="L74" s="126"/>
-      <c r="M74" s="126"/>
-      <c r="N74" s="126"/>
-      <c r="O74" s="126"/>
-      <c r="P74" s="126"/>
-      <c r="Q74" s="126"/>
-      <c r="R74" s="126"/>
-      <c r="S74" s="126"/>
-      <c r="T74" s="126"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
@@ -2980,44 +2989,44 @@
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="134" t="s">
+      <c r="B76" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="134"/>
-      <c r="D76" s="134"/>
-      <c r="E76" s="134"/>
-      <c r="F76" s="134"/>
-      <c r="G76" s="134"/>
-      <c r="H76" s="134"/>
-      <c r="I76" s="135" t="s">
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="K76" s="136"/>
-      <c r="L76" s="136"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B77" s="134"/>
-      <c r="C77" s="134"/>
-      <c r="D77" s="134"/>
-      <c r="E77" s="134"/>
-      <c r="F77" s="134"/>
-      <c r="G77" s="134"/>
-      <c r="H77" s="134"/>
-      <c r="I77" s="135"/>
-      <c r="K77" s="136"/>
-      <c r="L77" s="136"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="18"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B78" s="134"/>
-      <c r="C78" s="134"/>
-      <c r="D78" s="134"/>
-      <c r="E78" s="134"/>
-      <c r="F78" s="134"/>
-      <c r="G78" s="134"/>
-      <c r="H78" s="134"/>
-      <c r="I78" s="135"/>
-      <c r="K78" s="136"/>
-      <c r="L78" s="136"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="18"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
@@ -3032,176 +3041,230 @@
       <c r="L79" s="6"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B80" s="137" t="s">
+      <c r="B80" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="137"/>
-      <c r="D80" s="136"/>
-      <c r="E80" s="136"/>
-      <c r="F80" s="136"/>
-      <c r="G80" s="136"/>
-      <c r="H80" s="136"/>
-      <c r="I80" s="136"/>
-      <c r="J80" s="136"/>
-      <c r="K80" s="136"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="137"/>
-      <c r="C81" s="137"/>
-      <c r="D81" s="136"/>
-      <c r="E81" s="136"/>
-      <c r="F81" s="136"/>
-      <c r="G81" s="136"/>
-      <c r="H81" s="136"/>
-      <c r="I81" s="136"/>
-      <c r="J81" s="136"/>
-      <c r="K81" s="136"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="137"/>
-      <c r="C82" s="137"/>
-      <c r="D82" s="136"/>
-      <c r="E82" s="136"/>
-      <c r="F82" s="136"/>
-      <c r="G82" s="136"/>
-      <c r="H82" s="136"/>
-      <c r="I82" s="136"/>
-      <c r="J82" s="136"/>
-      <c r="K82" s="136"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="137"/>
-      <c r="C83" s="137"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="136"/>
-      <c r="F83" s="136"/>
-      <c r="G83" s="136"/>
-      <c r="H83" s="136"/>
-      <c r="I83" s="136"/>
-      <c r="J83" s="136"/>
-      <c r="K83" s="136"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="137"/>
-      <c r="C84" s="137"/>
-      <c r="D84" s="138" t="s">
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E84" s="138"/>
-      <c r="F84" s="138"/>
-      <c r="G84" s="138"/>
-      <c r="H84" s="136"/>
-      <c r="I84" s="136" t="s">
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J84" s="136"/>
-      <c r="K84" s="136"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="137"/>
-      <c r="C85" s="137"/>
-      <c r="D85" s="139" t="s">
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E85" s="139"/>
-      <c r="F85" s="139"/>
-      <c r="G85" s="139"/>
-      <c r="H85" s="136"/>
-      <c r="I85" s="136" t="s">
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J85" s="136"/>
-      <c r="K85" s="136"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="137"/>
-      <c r="C86" s="137"/>
-      <c r="D86" s="136"/>
-      <c r="E86" s="136"/>
-      <c r="F86" s="136"/>
-      <c r="G86" s="136"/>
-      <c r="H86" s="136"/>
-      <c r="I86" s="136"/>
-      <c r="J86" s="136"/>
-      <c r="K86" s="136"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="137"/>
-      <c r="C87" s="137"/>
-      <c r="D87" s="140" t="s">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E87" s="141"/>
-      <c r="F87" s="141"/>
-      <c r="G87" s="141"/>
-      <c r="H87" s="136"/>
-      <c r="I87" s="142" t="s">
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J87" s="142"/>
-      <c r="K87" s="142"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="137"/>
-      <c r="C88" s="137"/>
-      <c r="D88" s="141" t="s">
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E88" s="141"/>
-      <c r="F88" s="141"/>
-      <c r="G88" s="141"/>
-      <c r="H88" s="136"/>
-      <c r="I88" s="136" t="s">
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J88" s="136"/>
-      <c r="K88" s="136"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="137"/>
-      <c r="C89" s="137"/>
-      <c r="D89" s="136"/>
-      <c r="E89" s="136"/>
-      <c r="F89" s="136"/>
-      <c r="G89" s="136"/>
-      <c r="H89" s="136"/>
-      <c r="I89" s="136"/>
-      <c r="J89" s="136"/>
-      <c r="K89" s="136"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="146">
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="B80:C89"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="I84:K84"/>
-    <mergeCell ref="I85:K85"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="I87:K87"/>
-    <mergeCell ref="I88:K88"/>
-    <mergeCell ref="D80:K83"/>
-    <mergeCell ref="D86:K86"/>
-    <mergeCell ref="D89:K89"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="B76:H78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="K76:L78"/>
-    <mergeCell ref="Q69:R70"/>
-    <mergeCell ref="Q71:R72"/>
-    <mergeCell ref="Q73:R74"/>
-    <mergeCell ref="S66:T68"/>
-    <mergeCell ref="S69:T70"/>
-    <mergeCell ref="S71:T72"/>
-    <mergeCell ref="S73:T74"/>
-    <mergeCell ref="M69:N70"/>
-    <mergeCell ref="M71:N72"/>
-    <mergeCell ref="M73:N74"/>
-    <mergeCell ref="O66:P68"/>
-    <mergeCell ref="O69:P70"/>
-    <mergeCell ref="O71:P72"/>
-    <mergeCell ref="O73:P74"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="P44:P50"/>
+    <mergeCell ref="Q44:Q50"/>
+    <mergeCell ref="R44:R50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B41:C50"/>
+    <mergeCell ref="D41:D50"/>
+    <mergeCell ref="E41:F50"/>
+    <mergeCell ref="G43:H50"/>
+    <mergeCell ref="G41:L42"/>
+    <mergeCell ref="M41:R42"/>
+    <mergeCell ref="S41:T50"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:J50"/>
+    <mergeCell ref="K44:L50"/>
+    <mergeCell ref="M43:N50"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O44:O50"/>
+    <mergeCell ref="I20:K24"/>
+    <mergeCell ref="M20:O21"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="K34:P34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="K35:P35"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="B39:T39"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="D1:M2"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="C6:N9"/>
+    <mergeCell ref="B18:H19"/>
+    <mergeCell ref="I18:K19"/>
+    <mergeCell ref="M18:O19"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="E13:L15"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="B26:P27"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="B29:C33"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D30:E33"/>
+    <mergeCell ref="F30:J33"/>
+    <mergeCell ref="K30:P33"/>
+    <mergeCell ref="B20:H24"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="I60:T61"/>
+    <mergeCell ref="G60:H64"/>
+    <mergeCell ref="I62:J64"/>
+    <mergeCell ref="K62:L64"/>
+    <mergeCell ref="M62:N64"/>
+    <mergeCell ref="O62:P64"/>
+    <mergeCell ref="Q62:R64"/>
+    <mergeCell ref="S62:T64"/>
+    <mergeCell ref="B60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="B66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="I66:J68"/>
+    <mergeCell ref="M66:N68"/>
+    <mergeCell ref="Q66:R68"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
     <mergeCell ref="E53:F53"/>
@@ -3226,97 +3289,43 @@
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="K76:L78"/>
+    <mergeCell ref="Q69:R70"/>
+    <mergeCell ref="Q71:R72"/>
+    <mergeCell ref="Q73:R74"/>
+    <mergeCell ref="S66:T68"/>
+    <mergeCell ref="S69:T70"/>
+    <mergeCell ref="S71:T72"/>
+    <mergeCell ref="S73:T74"/>
+    <mergeCell ref="M69:N70"/>
+    <mergeCell ref="M71:N72"/>
+    <mergeCell ref="M73:N74"/>
+    <mergeCell ref="O66:P68"/>
+    <mergeCell ref="O69:P70"/>
+    <mergeCell ref="O71:P72"/>
+    <mergeCell ref="O73:P74"/>
     <mergeCell ref="B71:E72"/>
     <mergeCell ref="B73:E74"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="B66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="I66:J68"/>
-    <mergeCell ref="M66:N68"/>
-    <mergeCell ref="Q66:R68"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
     <mergeCell ref="I73:J74"/>
     <mergeCell ref="K73:L74"/>
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="G73:H74"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="I60:T61"/>
-    <mergeCell ref="G60:H64"/>
-    <mergeCell ref="I62:J64"/>
-    <mergeCell ref="K62:L64"/>
-    <mergeCell ref="M62:N64"/>
-    <mergeCell ref="O62:P64"/>
-    <mergeCell ref="Q62:R64"/>
-    <mergeCell ref="S62:T64"/>
-    <mergeCell ref="B60:E64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="B39:T39"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="D1:M2"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="C6:N9"/>
-    <mergeCell ref="B18:H19"/>
-    <mergeCell ref="I18:K19"/>
-    <mergeCell ref="M18:O19"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="E13:L15"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="B26:P27"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="B29:C33"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D30:E33"/>
-    <mergeCell ref="F30:J33"/>
-    <mergeCell ref="K30:P33"/>
-    <mergeCell ref="B20:H24"/>
-    <mergeCell ref="I20:K24"/>
-    <mergeCell ref="M20:O21"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="K34:P34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="K35:P35"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="P44:P50"/>
-    <mergeCell ref="Q44:Q50"/>
-    <mergeCell ref="R44:R50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B41:C50"/>
-    <mergeCell ref="D41:D50"/>
-    <mergeCell ref="E41:F50"/>
-    <mergeCell ref="G43:H50"/>
-    <mergeCell ref="G41:L42"/>
-    <mergeCell ref="M41:R42"/>
-    <mergeCell ref="S41:T50"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I44:J50"/>
-    <mergeCell ref="K44:L50"/>
-    <mergeCell ref="M43:N50"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O44:O50"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="B80:C89"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="I85:K85"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="I87:K87"/>
+    <mergeCell ref="I88:K88"/>
+    <mergeCell ref="D80:K83"/>
+    <mergeCell ref="D86:K86"/>
+    <mergeCell ref="D89:K89"/>
+    <mergeCell ref="H84:H85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/reports/ags-1.xlsx
+++ b/reports/ags-1.xlsx
@@ -15,12 +15,12 @@
     <definedName name="spec_f">Лист1!$A$53:$T$53</definedName>
     <definedName name="spec_s">Лист1!$A$54:$T$54</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>ФЕДЕРАЛЬНОЕ СТАТИСТИЧЕСКОЕ НАБЛЮДЕНИЕ</t>
   </si>
@@ -269,18 +269,12 @@
     <t>${sreg_all}</t>
   </si>
   <si>
-    <t>${in_org_all}</t>
-  </si>
-  <si>
     <t>${out_org}</t>
   </si>
   <si>
     <t>${in_org}</t>
   </si>
   <si>
-    <t>${fire_ags}</t>
-  </si>
-  <si>
     <t>${timeout}</t>
   </si>
   <si>
@@ -293,12 +287,6 @@
     <t>${others}</t>
   </si>
   <si>
-    <t>${ends}</t>
-  </si>
-  <si>
-    <t>${all_humans}</t>
-  </si>
-  <si>
     <t>${beg_ed}</t>
   </si>
   <si>
@@ -387,12 +375,6 @@
   </si>
   <si>
     <t>Численность граждан, прибывших в организацию для прохождения альтернативной гражданской службы и заключивших срочный трудовой договор в течение отчетного периода</t>
-  </si>
-  <si>
-    <t>0606039</t>
-  </si>
-  <si>
-    <t>00083351</t>
   </si>
 </sst>
 </file>
@@ -876,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1298,9 +1280,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1611,7 +1597,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="12" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1730,7 +1718,7 @@
     <row r="12" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E13" s="65" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F13" s="66"/>
       <c r="G13" s="66"/>
@@ -2059,12 +2047,12 @@
       <c r="P34" s="120"/>
     </row>
     <row r="35" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="143" t="s">
-        <v>104</v>
+      <c r="B35" s="121">
+        <v>606039</v>
       </c>
       <c r="C35" s="121"/>
-      <c r="D35" s="143" t="s">
-        <v>105</v>
+      <c r="D35" s="121">
+        <v>83351</v>
       </c>
       <c r="E35" s="121"/>
       <c r="F35" s="121">
@@ -2124,7 +2112,7 @@
       </c>
       <c r="F41" s="129"/>
       <c r="G41" s="97" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H41" s="98"/>
       <c r="I41" s="98"/>
@@ -2406,85 +2394,91 @@
       <c r="D52" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20" t="s">
+      <c r="F52" s="144"/>
+      <c r="G52" s="143" t="e">
+        <f>I52+K52</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H52" s="144"/>
+      <c r="I52" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="20" t="s">
+      <c r="J52" s="144"/>
+      <c r="K52" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="J52" s="21"/>
-      <c r="K52" s="20" t="s">
+      <c r="L52" s="144"/>
+      <c r="M52" s="143" t="e">
+        <f>O52+P52+Q52+R52</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N52" s="144"/>
+      <c r="O52" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="L52" s="21"/>
-      <c r="M52" s="20" t="s">
+      <c r="P52" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="N52" s="21"/>
-      <c r="O52" s="5" t="s">
+      <c r="Q52" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="P52" s="5" t="s">
+      <c r="R52" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="Q52" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="R52" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="S52" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="T52" s="21"/>
+      <c r="S52" s="143" t="e">
+        <f>E52+G52-M52</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T52" s="144"/>
     </row>
     <row r="53" spans="2:20" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="32" t="s">
         <v>62</v>
       </c>
       <c r="C53" s="33"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="20" t="s">
+      <c r="D53" s="145"/>
+      <c r="E53" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="20" t="s">
+      <c r="F53" s="144"/>
+      <c r="G53" s="143" t="e">
+        <f>I53+K53</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H53" s="144"/>
+      <c r="I53" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="20" t="s">
+      <c r="J53" s="144"/>
+      <c r="K53" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="J53" s="21"/>
-      <c r="K53" s="20" t="s">
+      <c r="L53" s="144"/>
+      <c r="M53" s="143" t="e">
+        <f>O53+P53+Q53+R53</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N53" s="144"/>
+      <c r="O53" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="L53" s="21"/>
-      <c r="M53" s="20" t="s">
+      <c r="P53" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="N53" s="21"/>
-      <c r="O53" s="5" t="s">
+      <c r="Q53" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="P53" s="5" t="s">
+      <c r="R53" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="Q53" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="S53" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="T53" s="21"/>
+      <c r="S53" s="143" t="e">
+        <f>E53+G53-M53</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T53" s="144"/>
     </row>
     <row r="54" spans="2:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="34" t="s">
@@ -2496,36 +2490,39 @@
         <v>63</v>
       </c>
       <c r="F54" s="21"/>
-      <c r="G54" s="20" t="s">
-        <v>64</v>
+      <c r="G54" s="20" t="e">
+        <f>I54+K54</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H54" s="21"/>
       <c r="I54" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J54" s="21"/>
       <c r="K54" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L54" s="21"/>
-      <c r="M54" s="20" t="s">
-        <v>67</v>
+      <c r="M54" s="20" t="e">
+        <f>O54+P54+Q54+R54</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N54" s="21"/>
       <c r="O54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q54" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P54" s="5" t="s">
+      <c r="R54" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Q54" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="S54" s="20" t="s">
-        <v>72</v>
+      <c r="S54" s="20" t="e">
+        <f>E54+G54-M54</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T54" s="21"/>
     </row>
@@ -2731,32 +2728,33 @@
       <c r="F66" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G66" s="19" t="s">
-        <v>73</v>
+      <c r="G66" s="19" t="e">
+        <f>S52</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J66" s="19"/>
       <c r="K66" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L66" s="19"/>
       <c r="M66" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N66" s="19"/>
       <c r="O66" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P66" s="19"/>
       <c r="Q66" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R66" s="19"/>
       <c r="S66" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="T66" s="19"/>
     </row>
@@ -2813,31 +2811,31 @@
         <v>47</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H69" s="29"/>
       <c r="I69" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J69" s="19"/>
       <c r="K69" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L69" s="19"/>
       <c r="M69" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N69" s="19"/>
       <c r="O69" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P69" s="19"/>
       <c r="Q69" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="R69" s="19"/>
       <c r="S69" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="T69" s="19"/>
     </row>
@@ -2873,31 +2871,31 @@
         <v>48</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H71" s="29"/>
       <c r="I71" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J71" s="19"/>
       <c r="K71" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L71" s="19"/>
       <c r="M71" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N71" s="19"/>
       <c r="O71" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P71" s="19"/>
       <c r="Q71" s="19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R71" s="19"/>
       <c r="S71" s="19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T71" s="19"/>
     </row>
@@ -2933,31 +2931,31 @@
         <v>49</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H73" s="29"/>
       <c r="I73" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J73" s="19"/>
       <c r="K73" s="19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L73" s="19"/>
       <c r="M73" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N73" s="19"/>
       <c r="O73" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P73" s="19"/>
       <c r="Q73" s="19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="R73" s="19"/>
       <c r="S73" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="T73" s="19"/>
     </row>
@@ -3145,7 +3143,7 @@
       <c r="G87" s="15"/>
       <c r="H87" s="10"/>
       <c r="I87" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J87" s="16"/>
       <c r="K87" s="16"/>

--- a/reports/ags-1.xlsx
+++ b/reports/ags-1.xlsx
@@ -15,12 +15,12 @@
     <definedName name="spec_f">Лист1!$A$53:$T$53</definedName>
     <definedName name="spec_s">Лист1!$A$54:$T$54</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
   <si>
     <t>ФЕДЕРАЛЬНОЕ СТАТИСТИЧЕСКОЕ НАБЛЮДЕНИЕ</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>Численность граждан, прибывших в организацию для прохождения альтернативной гражданской службы и заключивших срочный трудовой договор в течение отчетного периода</t>
+  </si>
+  <si>
+    <t>0606039</t>
+  </si>
+  <si>
+    <t>00083351</t>
   </si>
 </sst>
 </file>
@@ -858,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,6 +887,7 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -912,41 +919,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1214,6 +1227,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1280,13 +1296,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1603,268 +1612,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="58"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:14" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="67"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="73"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="73"/>
     </row>
     <row r="9" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="76"/>
     </row>
     <row r="10" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="67"/>
     </row>
     <row r="12" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="67"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="73"/>
     </row>
     <row r="15" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="76"/>
     </row>
     <row r="16" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="74" t="s">
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="75"/>
-      <c r="K18" s="76"/>
-      <c r="M18" s="80" t="s">
+      <c r="J18" s="78"/>
+      <c r="K18" s="79"/>
+      <c r="M18" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="81"/>
-      <c r="O18" s="82"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="85"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="79"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="85"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="82"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="88"/>
     </row>
     <row r="20" spans="2:16" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="115" t="s">
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="M20" s="98" t="s">
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="M20" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
     </row>
     <row r="21" spans="2:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
     </row>
     <row r="22" spans="2:16" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:16" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="M23" s="86" t="s">
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="M23" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="N23" s="87"/>
-      <c r="O23" s="88"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="91"/>
     </row>
     <row r="24" spans="2:16" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -1872,503 +1881,503 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="91"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="94"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="94"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="97"/>
     </row>
     <row r="28" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="91"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="94"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="103" t="s">
+      <c r="C29" s="101"/>
+      <c r="D29" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="105"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="108"/>
     </row>
     <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="99"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="106" t="s">
+      <c r="B30" s="102"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106" t="s">
+      <c r="E30" s="109"/>
+      <c r="F30" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="109" t="s">
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="110"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="113"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="99"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="110"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
+      <c r="P32" s="113"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="101"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="114"/>
     </row>
     <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="120">
+      <c r="B34" s="123">
         <v>1</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120">
+      <c r="C34" s="123"/>
+      <c r="D34" s="123">
         <v>2</v>
       </c>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120">
+      <c r="E34" s="123"/>
+      <c r="F34" s="123">
         <v>3</v>
       </c>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120">
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123">
         <v>4</v>
       </c>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="123"/>
     </row>
     <row r="35" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="121">
-        <v>606039</v>
-      </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121">
-        <v>83351</v>
-      </c>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121">
+      <c r="B35" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="125"/>
+      <c r="D35" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125">
         <v>13226</v>
       </c>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="121">
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125">
         <v>1</v>
       </c>
-      <c r="L35" s="121"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="121"/>
-      <c r="P35" s="121"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="125"/>
+      <c r="P35" s="125"/>
     </row>
     <row r="39" spans="2:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="55"/>
-      <c r="T39" s="55"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R40" s="54" t="s">
+      <c r="R40" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
     </row>
     <row r="41" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="126"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="123" t="s">
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="97" t="s">
+      <c r="E41" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="129"/>
-      <c r="G41" s="97" t="s">
+      <c r="F41" s="133"/>
+      <c r="G41" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="97" t="s">
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="133"/>
+      <c r="M41" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="N41" s="98"/>
-      <c r="O41" s="98"/>
-      <c r="P41" s="98"/>
-      <c r="Q41" s="98"/>
-      <c r="R41" s="129"/>
-      <c r="S41" s="97" t="s">
+      <c r="N41" s="101"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="101"/>
+      <c r="R41" s="133"/>
+      <c r="S41" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="T41" s="129"/>
+      <c r="T41" s="133"/>
     </row>
     <row r="42" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="127"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="102"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="136"/>
-      <c r="O42" s="136"/>
-      <c r="P42" s="136"/>
-      <c r="Q42" s="136"/>
-      <c r="R42" s="102"/>
-      <c r="S42" s="99"/>
-      <c r="T42" s="100"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="140"/>
+      <c r="O42" s="140"/>
+      <c r="P42" s="140"/>
+      <c r="Q42" s="140"/>
+      <c r="R42" s="105"/>
+      <c r="S42" s="102"/>
+      <c r="T42" s="103"/>
     </row>
     <row r="43" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="130" t="s">
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="131"/>
-      <c r="I43" s="137" t="s">
+      <c r="H43" s="135"/>
+      <c r="I43" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="138"/>
-      <c r="K43" s="138"/>
-      <c r="L43" s="139"/>
-      <c r="M43" s="97" t="s">
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="143"/>
+      <c r="M43" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="N43" s="129"/>
-      <c r="O43" s="140" t="s">
+      <c r="N43" s="133"/>
+      <c r="O43" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="P43" s="141"/>
-      <c r="Q43" s="141"/>
-      <c r="R43" s="142"/>
-      <c r="S43" s="99"/>
-      <c r="T43" s="100"/>
+      <c r="P43" s="145"/>
+      <c r="Q43" s="145"/>
+      <c r="R43" s="146"/>
+      <c r="S43" s="102"/>
+      <c r="T43" s="103"/>
     </row>
     <row r="44" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="127"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="97" t="s">
+      <c r="B44" s="131"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="129"/>
-      <c r="K44" s="97" t="s">
+      <c r="J44" s="133"/>
+      <c r="K44" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="129"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="100"/>
-      <c r="O44" s="123" t="s">
+      <c r="L44" s="133"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="P44" s="123" t="s">
+      <c r="P44" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="Q44" s="123" t="s">
+      <c r="Q44" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="R44" s="123" t="s">
+      <c r="R44" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="S44" s="99"/>
-      <c r="T44" s="100"/>
+      <c r="S44" s="102"/>
+      <c r="T44" s="103"/>
     </row>
     <row r="45" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="127"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="99"/>
-      <c r="N45" s="100"/>
-      <c r="O45" s="124"/>
-      <c r="P45" s="124"/>
-      <c r="Q45" s="124"/>
-      <c r="R45" s="124"/>
-      <c r="S45" s="99"/>
-      <c r="T45" s="100"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="102"/>
+      <c r="N45" s="103"/>
+      <c r="O45" s="128"/>
+      <c r="P45" s="128"/>
+      <c r="Q45" s="128"/>
+      <c r="R45" s="128"/>
+      <c r="S45" s="102"/>
+      <c r="T45" s="103"/>
     </row>
     <row r="46" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="127"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="99"/>
-      <c r="N46" s="100"/>
-      <c r="O46" s="124"/>
-      <c r="P46" s="124"/>
-      <c r="Q46" s="124"/>
-      <c r="R46" s="124"/>
-      <c r="S46" s="99"/>
-      <c r="T46" s="100"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="103"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="103"/>
+      <c r="O46" s="128"/>
+      <c r="P46" s="128"/>
+      <c r="Q46" s="128"/>
+      <c r="R46" s="128"/>
+      <c r="S46" s="102"/>
+      <c r="T46" s="103"/>
     </row>
     <row r="47" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="127"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="100"/>
-      <c r="O47" s="124"/>
-      <c r="P47" s="124"/>
-      <c r="Q47" s="124"/>
-      <c r="R47" s="124"/>
-      <c r="S47" s="99"/>
-      <c r="T47" s="100"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="103"/>
+      <c r="M47" s="102"/>
+      <c r="N47" s="103"/>
+      <c r="O47" s="128"/>
+      <c r="P47" s="128"/>
+      <c r="Q47" s="128"/>
+      <c r="R47" s="128"/>
+      <c r="S47" s="102"/>
+      <c r="T47" s="103"/>
     </row>
     <row r="48" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="99"/>
-      <c r="L48" s="100"/>
-      <c r="M48" s="99"/>
-      <c r="N48" s="100"/>
-      <c r="O48" s="124"/>
-      <c r="P48" s="124"/>
-      <c r="Q48" s="124"/>
-      <c r="R48" s="124"/>
-      <c r="S48" s="99"/>
-      <c r="T48" s="100"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="103"/>
+      <c r="O48" s="128"/>
+      <c r="P48" s="128"/>
+      <c r="Q48" s="128"/>
+      <c r="R48" s="128"/>
+      <c r="S48" s="102"/>
+      <c r="T48" s="103"/>
     </row>
     <row r="49" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="100"/>
-      <c r="M49" s="99"/>
-      <c r="N49" s="100"/>
-      <c r="O49" s="124"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="124"/>
-      <c r="R49" s="124"/>
-      <c r="S49" s="99"/>
-      <c r="T49" s="100"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="102"/>
+      <c r="L49" s="103"/>
+      <c r="M49" s="102"/>
+      <c r="N49" s="103"/>
+      <c r="O49" s="128"/>
+      <c r="P49" s="128"/>
+      <c r="Q49" s="128"/>
+      <c r="R49" s="128"/>
+      <c r="S49" s="102"/>
+      <c r="T49" s="103"/>
     </row>
     <row r="50" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="128"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="135"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="101"/>
-      <c r="N50" s="102"/>
-      <c r="O50" s="125"/>
-      <c r="P50" s="125"/>
-      <c r="Q50" s="125"/>
-      <c r="R50" s="125"/>
-      <c r="S50" s="101"/>
-      <c r="T50" s="102"/>
+      <c r="B50" s="132"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="104"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="104"/>
+      <c r="L50" s="105"/>
+      <c r="M50" s="104"/>
+      <c r="N50" s="105"/>
+      <c r="O50" s="129"/>
+      <c r="P50" s="129"/>
+      <c r="Q50" s="129"/>
+      <c r="R50" s="129"/>
+      <c r="S50" s="104"/>
+      <c r="T50" s="105"/>
     </row>
     <row r="51" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="122">
+      <c r="B51" s="126">
         <v>1</v>
       </c>
-      <c r="C51" s="122"/>
+      <c r="C51" s="126"/>
       <c r="D51" s="4">
         <v>2</v>
       </c>
-      <c r="E51" s="122">
+      <c r="E51" s="126">
         <v>3</v>
       </c>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122">
+      <c r="F51" s="126"/>
+      <c r="G51" s="126">
         <v>4</v>
       </c>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122">
+      <c r="H51" s="126"/>
+      <c r="I51" s="126">
         <v>5</v>
       </c>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122">
+      <c r="J51" s="126"/>
+      <c r="K51" s="126">
         <v>6</v>
       </c>
-      <c r="L51" s="122"/>
-      <c r="M51" s="122">
+      <c r="L51" s="126"/>
+      <c r="M51" s="126">
         <v>7</v>
       </c>
-      <c r="N51" s="122"/>
+      <c r="N51" s="126"/>
       <c r="O51" s="4">
         <v>8</v>
       </c>
@@ -2381,133 +2390,133 @@
       <c r="R51" s="4">
         <v>11</v>
       </c>
-      <c r="S51" s="122">
+      <c r="S51" s="126">
         <v>12</v>
       </c>
-      <c r="T51" s="122"/>
-    </row>
-    <row r="52" spans="2:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="32" t="s">
+      <c r="T51" s="126"/>
+    </row>
+    <row r="52" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="33"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="143" t="s">
+      <c r="E52" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="144"/>
-      <c r="G52" s="143" t="e">
+      <c r="F52" s="30"/>
+      <c r="G52" s="29" t="e">
         <f>I52+K52</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H52" s="144"/>
-      <c r="I52" s="143" t="s">
+      <c r="H52" s="30"/>
+      <c r="I52" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J52" s="144"/>
-      <c r="K52" s="143" t="s">
+      <c r="J52" s="30"/>
+      <c r="K52" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L52" s="144"/>
-      <c r="M52" s="143" t="e">
+      <c r="L52" s="30"/>
+      <c r="M52" s="29" t="e">
         <f>O52+P52+Q52+R52</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N52" s="144"/>
-      <c r="O52" s="145" t="s">
+      <c r="N52" s="30"/>
+      <c r="O52" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P52" s="145" t="s">
+      <c r="P52" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Q52" s="145" t="s">
+      <c r="Q52" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="R52" s="145" t="s">
+      <c r="R52" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="S52" s="143" t="e">
+      <c r="S52" s="29" t="e">
         <f>E52+G52-M52</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T52" s="144"/>
-    </row>
-    <row r="53" spans="2:20" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="32" t="s">
+      <c r="T52" s="30"/>
+    </row>
+    <row r="53" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="145"/>
-      <c r="E53" s="143" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="144"/>
-      <c r="G53" s="143" t="e">
+      <c r="F53" s="30"/>
+      <c r="G53" s="29" t="e">
         <f>I53+K53</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H53" s="144"/>
-      <c r="I53" s="143" t="s">
+      <c r="H53" s="30"/>
+      <c r="I53" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J53" s="144"/>
-      <c r="K53" s="143" t="s">
+      <c r="J53" s="30"/>
+      <c r="K53" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L53" s="144"/>
-      <c r="M53" s="143" t="e">
+      <c r="L53" s="30"/>
+      <c r="M53" s="29" t="e">
         <f>O53+P53+Q53+R53</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N53" s="144"/>
-      <c r="O53" s="145" t="s">
+      <c r="N53" s="30"/>
+      <c r="O53" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P53" s="145" t="s">
+      <c r="P53" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Q53" s="145" t="s">
+      <c r="Q53" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="R53" s="145" t="s">
+      <c r="R53" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="S53" s="143" t="e">
+      <c r="S53" s="29" t="e">
         <f>E53+G53-M53</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T53" s="144"/>
-    </row>
-    <row r="54" spans="2:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="34" t="s">
+      <c r="T53" s="30"/>
+    </row>
+    <row r="54" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="35"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="20" t="e">
+      <c r="F54" s="34"/>
+      <c r="G54" s="33" t="e">
         <f>I54+K54</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H54" s="21"/>
-      <c r="I54" s="20" t="s">
+      <c r="H54" s="34"/>
+      <c r="I54" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="J54" s="21"/>
-      <c r="K54" s="20" t="s">
+      <c r="J54" s="34"/>
+      <c r="K54" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="L54" s="21"/>
-      <c r="M54" s="20" t="e">
+      <c r="L54" s="34"/>
+      <c r="M54" s="33" t="e">
         <f>O54+P54+Q54+R54</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N54" s="21"/>
+      <c r="N54" s="34"/>
       <c r="O54" s="5" t="s">
         <v>66</v>
       </c>
@@ -2520,465 +2529,465 @@
       <c r="R54" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="S54" s="20" t="e">
+      <c r="S54" s="33" t="e">
         <f>E54+G54-M54</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T54" s="21"/>
+      <c r="T54" s="34"/>
     </row>
     <row r="58" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="25"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="R59" s="26" t="s">
+      <c r="R59" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="48" t="s">
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G60" s="42" t="s">
+      <c r="G60" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H60" s="43"/>
-      <c r="I60" s="36" t="s">
+      <c r="H60" s="46"/>
+      <c r="I60" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="38"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="41"/>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="41"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="44"/>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="48" t="s">
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48" t="s">
+      <c r="J62" s="51"/>
+      <c r="K62" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="L62" s="48"/>
-      <c r="M62" s="48" t="s">
+      <c r="L62" s="51"/>
+      <c r="M62" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48" t="s">
+      <c r="N62" s="51"/>
+      <c r="O62" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="P62" s="48"/>
-      <c r="Q62" s="48" t="s">
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="R62" s="48"/>
-      <c r="S62" s="48" t="s">
+      <c r="R62" s="51"/>
+      <c r="S62" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="T62" s="48"/>
+      <c r="T62" s="51"/>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="49"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="52"/>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="50"/>
-      <c r="O64" s="50"/>
-      <c r="P64" s="50"/>
-      <c r="Q64" s="50"/>
-      <c r="R64" s="50"/>
-      <c r="S64" s="50"/>
-      <c r="T64" s="50"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="53"/>
+      <c r="Q64" s="53"/>
+      <c r="R64" s="53"/>
+      <c r="S64" s="53"/>
+      <c r="T64" s="53"/>
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B65" s="19">
+      <c r="B65" s="20">
         <v>1</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
       <c r="F65" s="7">
         <v>2</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G65" s="20">
         <v>3</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19">
+      <c r="H65" s="20"/>
+      <c r="I65" s="20">
         <v>4</v>
       </c>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19">
+      <c r="J65" s="20"/>
+      <c r="K65" s="20">
         <v>5</v>
       </c>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19">
+      <c r="L65" s="20"/>
+      <c r="M65" s="20">
         <v>6</v>
       </c>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19">
+      <c r="N65" s="20"/>
+      <c r="O65" s="20">
         <v>7</v>
       </c>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19">
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20">
         <v>8</v>
       </c>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19">
+      <c r="R65" s="20"/>
+      <c r="S65" s="20">
         <v>9</v>
       </c>
-      <c r="T65" s="19"/>
+      <c r="T65" s="20"/>
     </row>
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="27" t="s">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G66" s="19" t="e">
+      <c r="G66" s="20" t="e">
         <f>S52</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19" t="s">
+      <c r="H66" s="20"/>
+      <c r="I66" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19" t="s">
+      <c r="J66" s="20"/>
+      <c r="K66" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19" t="s">
+      <c r="L66" s="20"/>
+      <c r="M66" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19" t="s">
+      <c r="N66" s="20"/>
+      <c r="O66" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19" t="s">
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19" t="s">
+      <c r="R66" s="20"/>
+      <c r="S66" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="T66" s="19"/>
+      <c r="T66" s="20"/>
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
     </row>
     <row r="69" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="27" t="s">
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="28" t="s">
+      <c r="G69" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="H69" s="29"/>
-      <c r="I69" s="19" t="s">
+      <c r="H69" s="26"/>
+      <c r="I69" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19" t="s">
+      <c r="J69" s="20"/>
+      <c r="K69" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19" t="s">
+      <c r="L69" s="20"/>
+      <c r="M69" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19" t="s">
+      <c r="N69" s="20"/>
+      <c r="O69" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19" t="s">
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19" t="s">
+      <c r="R69" s="20"/>
+      <c r="S69" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="T69" s="19"/>
+      <c r="T69" s="20"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="19"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
     </row>
     <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="27" t="s">
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G71" s="28" t="s">
+      <c r="G71" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H71" s="29"/>
-      <c r="I71" s="19" t="s">
+      <c r="H71" s="26"/>
+      <c r="I71" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19" t="s">
+      <c r="J71" s="20"/>
+      <c r="K71" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19" t="s">
+      <c r="L71" s="20"/>
+      <c r="M71" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19" t="s">
+      <c r="N71" s="20"/>
+      <c r="O71" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19" t="s">
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19" t="s">
+      <c r="R71" s="20"/>
+      <c r="S71" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="T71" s="19"/>
+      <c r="T71" s="20"/>
     </row>
     <row r="72" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="27" t="s">
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G73" s="28" t="s">
+      <c r="G73" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="H73" s="29"/>
-      <c r="I73" s="19" t="s">
+      <c r="H73" s="26"/>
+      <c r="I73" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19" t="s">
+      <c r="J73" s="20"/>
+      <c r="K73" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19" t="s">
+      <c r="L73" s="20"/>
+      <c r="M73" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19" t="s">
+      <c r="N73" s="20"/>
+      <c r="O73" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19" t="s">
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19" t="s">
+      <c r="R73" s="20"/>
+      <c r="S73" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="T73" s="19"/>
+      <c r="T73" s="20"/>
     </row>
     <row r="74" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="22"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="19"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
     </row>
     <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
@@ -2987,44 +2996,44 @@
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="18" t="s">
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="18"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="19"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="18"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="19"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
     </row>
     <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
@@ -3039,142 +3048,142 @@
       <c r="L79" s="6"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="12" t="s">
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10" t="s">
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="13" t="s">
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10" t="s">
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="14" t="s">
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="16" t="s">
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="15" t="s">
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10" t="s">
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="146">

--- a/reports/ags-1.xlsx
+++ b/reports/ags-1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="14805" windowHeight="8070"/>
@@ -15,12 +15,12 @@
     <definedName name="spec_f">Лист1!$A$53:$T$53</definedName>
     <definedName name="spec_s">Лист1!$A$54:$T$54</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>ФЕДЕРАЛЬНОЕ СТАТИСТИЧЕСКОЕ НАБЛЮДЕНИЕ</t>
   </si>
@@ -287,37 +287,10 @@
     <t>${others}</t>
   </si>
   <si>
-    <t>${beg_ed}</t>
-  </si>
-  <si>
-    <t>${osn_ed}</t>
-  </si>
-  <si>
-    <t>${mid_ed}</t>
-  </si>
-  <si>
-    <t>${beg_pr}</t>
-  </si>
-  <si>
-    <t>${mid_pr}</t>
-  </si>
-  <si>
-    <t>${up_pr}</t>
-  </si>
-  <si>
     <t>${dates}</t>
   </si>
   <si>
     <t>${doca}</t>
-  </si>
-  <si>
-    <t>${all_humans1}</t>
-  </si>
-  <si>
-    <t>${all_humans2}</t>
-  </si>
-  <si>
-    <t>${all_humans3}</t>
   </si>
   <si>
     <t>${beg_ed1}</t>
@@ -1602,7 +1575,9 @@
   </sheetPr>
   <dimension ref="B1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1727,7 +1702,7 @@
     <row r="12" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="3:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E13" s="68" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F13" s="69"/>
       <c r="G13" s="69"/>
@@ -2057,11 +2032,11 @@
     </row>
     <row r="35" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="124" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C35" s="125"/>
       <c r="D35" s="124" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E35" s="125"/>
       <c r="F35" s="125">
@@ -2121,7 +2096,7 @@
       </c>
       <c r="F41" s="133"/>
       <c r="G41" s="100" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H41" s="101"/>
       <c r="I41" s="101"/>
@@ -2737,33 +2712,39 @@
       <c r="F66" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G66" s="20" t="e">
-        <f>S52</f>
-        <v>#VALUE!</v>
+      <c r="G66" s="20">
+        <f>SUM(G69:H74)</f>
+        <v>0</v>
       </c>
       <c r="H66" s="20"/>
-      <c r="I66" s="20" t="s">
-        <v>70</v>
+      <c r="I66" s="20">
+        <f>SUM(I69:J74)</f>
+        <v>0</v>
       </c>
       <c r="J66" s="20"/>
-      <c r="K66" s="20" t="s">
-        <v>71</v>
+      <c r="K66" s="20">
+        <f>SUM(K69:L74)</f>
+        <v>0</v>
       </c>
       <c r="L66" s="20"/>
-      <c r="M66" s="20" t="s">
-        <v>72</v>
+      <c r="M66" s="20">
+        <f>SUM(M69:N74)</f>
+        <v>0</v>
       </c>
       <c r="N66" s="20"/>
-      <c r="O66" s="20" t="s">
-        <v>73</v>
+      <c r="O66" s="20">
+        <f>SUM(O69:P74)</f>
+        <v>0</v>
       </c>
       <c r="P66" s="20"/>
-      <c r="Q66" s="20" t="s">
-        <v>74</v>
+      <c r="Q66" s="20">
+        <f>SUM(Q69:R74)</f>
+        <v>0</v>
       </c>
       <c r="R66" s="20"/>
-      <c r="S66" s="20" t="s">
-        <v>75</v>
+      <c r="S66" s="20">
+        <f>SUM(S69:T74)</f>
+        <v>0</v>
       </c>
       <c r="T66" s="20"/>
     </row>
@@ -2819,32 +2800,33 @@
       <c r="F69" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="25" t="s">
-        <v>78</v>
+      <c r="G69" s="25">
+        <f>SUM(I69:T70)</f>
+        <v>0</v>
       </c>
       <c r="H69" s="26"/>
       <c r="I69" s="20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J69" s="20"/>
       <c r="K69" s="20" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L69" s="20"/>
       <c r="M69" s="20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N69" s="20"/>
       <c r="O69" s="20" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="P69" s="20"/>
       <c r="Q69" s="20" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="R69" s="20"/>
       <c r="S69" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="T69" s="20"/>
     </row>
@@ -2879,32 +2861,33 @@
       <c r="F71" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G71" s="25" t="s">
-        <v>79</v>
+      <c r="G71" s="25">
+        <f>SUM(I71:T72)</f>
+        <v>0</v>
       </c>
       <c r="H71" s="26"/>
       <c r="I71" s="20" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J71" s="20"/>
       <c r="K71" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L71" s="20"/>
       <c r="M71" s="20" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N71" s="20"/>
       <c r="O71" s="20" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="P71" s="20"/>
       <c r="Q71" s="20" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="R71" s="20"/>
       <c r="S71" s="20" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="T71" s="20"/>
     </row>
@@ -2939,32 +2922,33 @@
       <c r="F73" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G73" s="25" t="s">
-        <v>80</v>
+      <c r="G73" s="25">
+        <f>SUM(I73:T74)</f>
+        <v>0</v>
       </c>
       <c r="H73" s="26"/>
       <c r="I73" s="20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="20" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="L73" s="20"/>
       <c r="M73" s="20" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N73" s="20"/>
       <c r="O73" s="20" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="P73" s="20"/>
       <c r="Q73" s="20" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="R73" s="20"/>
       <c r="S73" s="20" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T73" s="20"/>
     </row>
@@ -3152,7 +3136,7 @@
       <c r="G87" s="16"/>
       <c r="H87" s="11"/>
       <c r="I87" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
